--- a/biology/Zoologie/Astrocaneum/Astrocaneum.xlsx
+++ b/biology/Zoologie/Astrocaneum/Astrocaneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrocaneum est un genre d'ophiures (échinodermes) de la famille des Gorgonocephalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces ophiures gogonocéphales se distinguent par la présence d'une plaque madréporique à chaque interradius, 8 ou 9 divisions des bras dont chaque segment est distinctement annelé d'un bourrelet tuberculé portant de petits crochets articulés coniques (au-delà de la 7e division, ces bandes sont doubles, avec des crochets plus prononcés), quelques bandes similaires sur les côtes radiales du disque central[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces ophiures gogonocéphales se distinguent par la présence d'une plaque madréporique à chaque interradius, 8 ou 9 divisions des bras dont chaque segment est distinctement annelé d'un bourrelet tuberculé portant de petits crochets articulés coniques (au-delà de la 7e division, ces bandes sont doubles, avec des crochets plus prononcés), quelques bandes similaires sur les côtes radiales du disque central. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 janvier 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 janvier 2016) :
 Astrocaneum herrerai (A.H. Clark, 1919) -- Caraïbes
 Astrocaneum spinosum (Lyman, 1875) -- Pacifique centre-est du Golfe de Californie à Panama</t>
         </is>
